--- a/src/test/resources/createOrgtestdata.xlsx
+++ b/src/test/resources/createOrgtestdata.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="organization" sheetId="1" r:id="rId1"/>
     <sheet name="contact" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginDataSet" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>TC_Id</t>
   </si>
@@ -91,6 +92,18 @@
   </si>
   <si>
     <t>sony80</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>a123</t>
   </si>
 </sst>
 </file>
@@ -533,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -596,4 +609,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1234</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1234</v>
+      </c>
+      <c r="B5">
+        <v>1234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>